--- a/06-03-2023/data/output/xlsx/sample_0/category__9.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="151">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,13 +52,61 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
@@ -91,52 +139,172 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
@@ -145,6 +313,30 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -175,9 +367,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -208,150 +397,36 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -359,81 +434,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -589,30 +589,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.02553626149131767</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02542372881355932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03883495145631068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04040404040404041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04761904761904762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06329113924050633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,30 +781,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06417112299465241</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.06338028169014084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07526881720430108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0821917808219178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09259259259259259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1081081081081081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04545454545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,30 +955,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.02507522567703109</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02522704339051463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03339517625231911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02616279069767442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0108695652173913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01851851851851852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,30 +1135,66 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$7</c:f>
+              <c:f>Decimals!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$7</c:f>
+              <c:f>Decimals!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.022508038585209</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02439024390243903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02465753424657534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02371541501976284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02395209580838323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01538461538461539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,30 +1459,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.02010050251256281</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02547770700636943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0517682578026143</v>
+        <v>0.05176825780261431</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1995,20 +2151,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="E5" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.008570191486590894</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2016,154 +2174,168 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="E6" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.002493625109162794</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E7" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.009500291399058343</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="E8" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0210943201023842</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E9" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.007137690218385525</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.006258186436983227</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.01933151173985414</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E12" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.0124091192138611</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2176,191 +2348,175 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03883495145631068</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.008570191486590896</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.04040404040404041</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.002493625109162794</v>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.009500291399058345</v>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.06329113924050633</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.0210943201023842</v>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-0.007137690218385525</v>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.006258186436983229</v>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-0.01933151173985414</v>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-0.0124091192138611</v>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2368,154 +2524,168 @@
         <v>39</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.022508038585209</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="E22" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.04063559608623943</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="E23" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.04021414926374025</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="E24" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.04630048622445786</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="E25" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
+      <c r="F25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.03620335551210777</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="E26" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.008196496601257841</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="E27" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
+      <c r="F27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.01026808146116772</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E28" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-0.03285478053383536</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2528,15 +2698,15 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2549,15 +2719,15 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2570,15 +2740,15 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2591,12 +2761,12 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2612,36 +2782,36 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02465753424657534</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2654,183 +2824,191 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.02507522567703109</v>
       </c>
       <c r="E36" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.04994107054877479</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.02522704339051463</v>
       </c>
       <c r="E37" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
+      <c r="F37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.05012873326296677</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.03339517625231911</v>
       </c>
       <c r="E38" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>14</v>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.04204742331495287</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.02616279069767442</v>
       </c>
       <c r="E39" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
+      <c r="F39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-0.08713141795699021</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E40" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E41" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E42" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E43" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2843,208 +3021,208 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02371541501976284</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.02395209580838323</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="E50" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="E51" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
+      <c r="F51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-0.08243579774654008</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.02507522567703109</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E52" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G52" s="1">
-        <v>0.04994107054877479</v>
+        <v>-0.04366095561890965</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02522704339051463</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.05012873326296677</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3057,15 +3235,15 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3078,15 +3256,15 @@
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3099,15 +3277,15 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3120,145 +3298,141 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.03339517625231911</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.04204742331495286</v>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.02616279069767442</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="1">
-        <v>-0.08713141795699021</v>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.01470588235294118</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.01470588235294118</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3271,281 +3445,267 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>0.022508038585209</v>
       </c>
       <c r="E65" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.06417112299465241</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E66" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.04063559608623943</v>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.06338028169014084</v>
+        <v>0.02465753424657534</v>
       </c>
       <c r="E67" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.04021414926374025</v>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="E68" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="E69" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E70" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E71" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.07526881720430108</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E72" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.04630048622445786</v>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0821917808219178</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.03620335551210777</v>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.09259259259259259</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.00819649660125784</v>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.01026808146116772</v>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" s="1">
-        <v>-0.03285478053383536</v>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3558,15 +3718,15 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3579,15 +3739,15 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3600,57 +3760,57 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.0250501002004008</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.01464128843338214</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3663,15 +3823,15 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3684,15 +3844,15 @@
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3705,15 +3865,15 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3726,15 +3886,15 @@
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3747,15 +3907,15 @@
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3768,15 +3928,15 @@
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3789,15 +3949,15 @@
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3810,15 +3970,15 @@
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3831,15 +3991,15 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3852,15 +4012,15 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3873,101 +4033,99 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.02010050251256281</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.02547770700636943</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-0.08243579774654008</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="E95" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.01464128843338214</v>
       </c>
       <c r="E96" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
@@ -3980,15 +4138,15 @@
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -4001,15 +4159,15 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4022,30 +4180,28 @@
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G100" s="1">
-        <v>-0.04366095561890965</v>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4053,7 +4209,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4066,7 +4222,7 @@
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4074,7 +4230,7 @@
         <v>132</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4087,7 +4243,7 @@
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4095,7 +4251,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4108,7 +4264,7 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4116,7 +4272,7 @@
         <v>134</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4129,7 +4285,7 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4137,7 +4293,7 @@
         <v>135</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4150,7 +4306,7 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4158,7 +4314,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4171,7 +4327,7 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4179,7 +4335,7 @@
         <v>137</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4192,7 +4348,7 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +4358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4343,6 +4499,350 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.03883495145631068</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01378485125590987</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.04040404040404041</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01535394020363961</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.02256894741864681</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.06329113924050633</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.03824103904010553</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.01341143826113766</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0249498997995992</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.02040444525414465</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.03050545535515475</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4351,7 +4851,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4408,7 +4908,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4451,7 +4951,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4489,6 +4989,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.07526881720430108</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.05021871700390028</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0821917808219178</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.057141680621517</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.06754249239219179</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.08305800790770732</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.02040444525414465</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -4500,7 +5215,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4557,7 +5272,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4600,7 +5315,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4638,6 +5353,264 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.03339517625231911</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.008345076051918306</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02616279069767442</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.001112690497273618</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.01034421784745963</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.01034421784745963</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.0141805349830095</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.006531581681882285</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +5622,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4706,7 +5679,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4749,7 +5722,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4787,6 +5760,264 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.02465753424657534</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.0003925659538254606</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02371541501976284</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.001334685180637958</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.02395209580838323</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.001098004392017567</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.001240576390876994</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.01328539431804786</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.009665484815785417</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -4855,7 +6086,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -4898,7 +6129,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -4947,7 +6178,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5004,7 +6235,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5047,7 +6278,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -5085,6 +6316,49 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0250501002004008</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.001616566466265866</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
         <v>0</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/sample_0/category__9.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__9.xlsx
@@ -52,61 +52,61 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
@@ -139,46 +139,190 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
@@ -202,58 +346,43 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
@@ -262,13 +391,13 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
@@ -305,135 +434,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2120,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.05176825780261431</v>
+        <v>0.0517682578026143</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.008570191486590894</v>
+        <v>-0.008570191486590896</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>0.009500291399058343</v>
+        <v>0.009500291399058345</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2281,7 +2281,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>0.006258186436983227</v>
+        <v>0.006258186436983229</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2524,174 +2524,160 @@
         <v>39</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.06417112299465241</v>
+        <v>0.022508038585209</v>
       </c>
       <c r="E22" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.04063559608623943</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.06338028169014084</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E23" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.04021414926374025</v>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.07526881720430108</v>
+        <v>0.02465753424657534</v>
       </c>
       <c r="E24" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.04630048622445786</v>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0821917808219178</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="E25" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.03620335551210777</v>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.09259259259259259</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="E26" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.008196496601257841</v>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E27" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.01026808146116772</v>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.04545454545454546</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-0.03285478053383536</v>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E29" s="1">
         <v>0.0250501002004008</v>
@@ -2703,10 +2689,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2724,10 +2710,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2745,10 +2731,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2766,10 +2752,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2787,10 +2773,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2808,10 +2794,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2829,108 +2815,100 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02507522567703109</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.04994107054877479</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02522704339051463</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.05012873326296677</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.03339517625231911</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.04204742331495287</v>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02616279069767442</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="1">
-        <v>-0.08713141795699021</v>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01470588235294118</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0.0250501002004008</v>
@@ -2942,16 +2920,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01470588235294118</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0.0250501002004008</v>
@@ -2963,16 +2941,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0.0250501002004008</v>
@@ -2984,16 +2962,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0.0250501002004008</v>
@@ -3005,10 +2983,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -3026,10 +3004,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -3047,10 +3025,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -3068,10 +3046,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -3089,7 +3067,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3110,7 +3088,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3131,16 +3109,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.02010050251256281</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0.0250501002004008</v>
@@ -3152,125 +3130,129 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.02547770700636943</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="1">
-        <v>-0.08243579774654008</v>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.02666666666666667</v>
+        <v>0.02507522567703109</v>
       </c>
       <c r="E52" s="1">
         <v>0.0250501002004008</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G52" s="1">
-        <v>-0.04366095561890965</v>
+        <v>0.04994107054877479</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.02522704339051463</v>
       </c>
       <c r="E53" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>30</v>
+      <c r="F53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.05012873326296677</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.03339517625231911</v>
       </c>
       <c r="E54" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>30</v>
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.04204742331495286</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.02616279069767442</v>
       </c>
       <c r="E55" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>30</v>
+      <c r="F55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="1">
+        <v>-0.08713141795699021</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E56" s="1">
         <v>0.0250501002004008</v>
@@ -3282,16 +3264,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E57" s="1">
         <v>0.0250501002004008</v>
@@ -3303,16 +3285,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E58" s="1">
         <v>0.0250501002004008</v>
@@ -3324,16 +3306,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E59" s="1">
         <v>0.0250501002004008</v>
@@ -3345,10 +3327,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -3366,10 +3348,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3387,10 +3369,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3408,10 +3390,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3429,7 +3411,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3450,16 +3432,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.022508038585209</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0.0250501002004008</v>
@@ -3471,157 +3453,171 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="E66" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>30</v>
+      <c r="F66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.04063559608623943</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.02465753424657534</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="E67" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>30</v>
+      <c r="F67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.04021414926374025</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.02371541501976284</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="E68" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>30</v>
+      <c r="F68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.04630048622445786</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.02395209580838323</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="E69" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>30</v>
+      <c r="F69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.03620335551210777</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.02380952380952381</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="E70" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>30</v>
+      <c r="F70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.00819649660125784</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.01176470588235294</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="E71" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>30</v>
+      <c r="F71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.01026808146116772</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.01538461538461539</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E72" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>30</v>
+      <c r="F72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-0.03285478053383536</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3639,10 +3635,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3660,10 +3656,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3681,10 +3677,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3702,10 +3698,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3723,10 +3719,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3744,10 +3740,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3765,16 +3761,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.0250501002004008</v>
       </c>
       <c r="E80" s="1">
         <v>0.0250501002004008</v>
@@ -3786,16 +3782,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.01464128843338214</v>
       </c>
       <c r="E81" s="1">
         <v>0.0250501002004008</v>
@@ -3807,10 +3803,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3828,10 +3824,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3849,10 +3845,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3870,10 +3866,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3891,10 +3887,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3912,10 +3908,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3933,10 +3929,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3954,10 +3950,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3975,10 +3971,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3996,7 +3992,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4017,7 +4013,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4038,16 +4034,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="E93" s="1">
         <v>0.0250501002004008</v>
@@ -4059,44 +4055,48 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="E94" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>30</v>
+      <c r="F94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-0.08243579774654008</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E95" s="1">
         <v>0.0250501002004008</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>30</v>
+      <c r="F95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G95" s="1">
+        <v>-0.04366095561890965</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4104,13 +4104,13 @@
         <v>126</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.01464128843338214</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
         <v>0.0250501002004008</v>
@@ -4125,7 +4125,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
@@ -4146,7 +4146,7 @@
         <v>128</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -4167,7 +4167,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4188,7 +4188,7 @@
         <v>130</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4209,7 +4209,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4230,7 +4230,7 @@
         <v>132</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4251,7 +4251,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
